--- a/medicine/Psychotrope/Brasserie_de_Rennes/Brasserie_de_Rennes.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Rennes/Brasserie_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie de Rennes ou brasserie Saint-Hélier est une ancienne brasserie bretonne installée à Rennes en Ille-et-Vilaine.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie de Rennes, ou brasserie rennaise, est fondée en 1873 par J. Sanson, M. Chapelle, M. Wurtz et J.-J. Graff dans le quartier du Faubourg Saint-Hélier. Julien Sanson avait déjà créé une brasserie, la brasserie Sanson, en 1850.
 En 1878, elle prend le nom de brasserie Graff.
@@ -554,9 +568,11 @@
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des bâtiments de l'ancienne brasserie sont détruits en 2005 pour permettre la construction d'immeubles résidentiels. Seuls le château d'eau, un silo et la salle d'embouteillage sont conservés. La salle d'embouteillage sera réhabilitée et deviendra un site consacré à l'événementiel d'ici 2018[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des bâtiments de l'ancienne brasserie sont détruits en 2005 pour permettre la construction d'immeubles résidentiels. Seuls le château d'eau, un silo et la salle d'embouteillage sont conservés. La salle d'embouteillage sera réhabilitée et deviendra un site consacré à l'événementiel d'ici 2018.
 </t>
         </is>
       </c>
